--- a/src/main/resources/static/bookData.xlsx
+++ b/src/main/resources/static/bookData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
   <si>
     <t>Java How To Program</t>
   </si>
@@ -19,310 +19,271 @@
     <t>Paul Deitel &amp; Harvey Deitel</t>
   </si>
   <si>
-    <t>0-13-474335-0</t>
+    <t>013443350</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Get Your Hands Dirt on Clean Architecture</t>
+  </si>
+  <si>
+    <t>Tom Hombergs</t>
+  </si>
+  <si>
+    <t>9781839211966</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Responsive Web Design with HTML5 and CSS</t>
+  </si>
+  <si>
+    <t>Ben Frain</t>
+  </si>
+  <si>
+    <t>9781839211560</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Spring In Action</t>
+  </si>
+  <si>
+    <t>Craig Walls</t>
+  </si>
+  <si>
+    <t>9781617294945</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Spring Security In Action</t>
+  </si>
+  <si>
+    <t>Laurentiu Spilca</t>
+  </si>
+  <si>
+    <t>9781617297731</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Introduction to the Theory of Computation</t>
+  </si>
+  <si>
+    <t>Michael Sipser</t>
+  </si>
+  <si>
+    <t>9780357670583</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Spring Microservices In Action</t>
+  </si>
+  <si>
+    <t>John Carnell &amp; Hillary Huaylupo Sanchex</t>
+  </si>
+  <si>
+    <t>9781617296956</t>
+  </si>
+  <si>
+    <t>Effective Java</t>
+  </si>
+  <si>
+    <t>Joshua Bloch</t>
+  </si>
+  <si>
+    <t>9780321356680</t>
+  </si>
+  <si>
+    <t>Object Design: Roles, Responsibilities, and Collaborations</t>
+  </si>
+  <si>
+    <t>Rebecca Wirfs-Brock &amp; Alan McKean</t>
+  </si>
+  <si>
+    <t>0201379430</t>
+  </si>
+  <si>
+    <t>Agile Software Development: Principles, Patterns, and Practices</t>
+  </si>
+  <si>
+    <t>Robert C. Martin</t>
+  </si>
+  <si>
+    <t>0135974445</t>
+  </si>
+  <si>
+    <t>Design Patterns: Elements of Reusable Object-Oriented Software</t>
+  </si>
+  <si>
+    <t>Erich Gamma, Richard Helm, Ralph Johnson &amp; John Vlissides</t>
+  </si>
+  <si>
+    <t>0201633612</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>Computer Systems: A Programmer’s Perspective</t>
+  </si>
+  <si>
+    <t>Randal E. Bryant &amp; David R. O’Hallaron</t>
+  </si>
+  <si>
+    <t>9789332573901</t>
+  </si>
+  <si>
+    <t>Applying UML and Patterns</t>
+  </si>
+  <si>
+    <t>Craig Larman</t>
+  </si>
+  <si>
+    <t>0131489062</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>World History</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>US Presidents</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t>Revolutionary War</t>
   </si>
   <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>cover-images/IMG_0147.JPG</t>
-  </si>
-  <si>
-    <t>Get Your Hands Dirt on Clean Architecture</t>
-  </si>
-  <si>
-    <t>Tom Hombergs</t>
-  </si>
-  <si>
-    <t>978-1-83921-196-6</t>
+    <t>44</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>Civil War</t>
   </si>
   <si>
-    <t>255</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>cover-images/IMG_0146.JPG</t>
-  </si>
-  <si>
-    <t>Responsive Web Design with HTML5 and CSS</t>
-  </si>
-  <si>
-    <t>Ben Frain</t>
-  </si>
-  <si>
-    <t>978-1-83921-156-0</t>
+    <t>15</t>
   </si>
   <si>
     <t>Thomas Jefferson</t>
   </si>
   <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>cover-images/IMG_0158.JPG</t>
-  </si>
-  <si>
-    <t>Spring In Action</t>
-  </si>
-  <si>
-    <t>Craig Walls</t>
-  </si>
-  <si>
-    <t>9781617294945</t>
+    <t>29</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
   <si>
     <t>Economics</t>
   </si>
   <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>cover-images/IMG_0157.JPG</t>
-  </si>
-  <si>
-    <t>Spring Security In Action</t>
-  </si>
-  <si>
-    <t>Laurentiu Spilca</t>
-  </si>
-  <si>
-    <t>9781617297731</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>World War I</t>
   </si>
   <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>cover-images/IMG_0156.JPG</t>
-  </si>
-  <si>
-    <t>Introduction to the Theory of Computation</t>
-  </si>
-  <si>
-    <t>Michael Sipser</t>
-  </si>
-  <si>
-    <t>978-0-357-67058-3</t>
+    <t>18</t>
   </si>
   <si>
     <t>World War II</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>cover-images/IMG_0155.JPG</t>
-  </si>
-  <si>
-    <t>Spring Microservices In Action</t>
-  </si>
-  <si>
-    <t>John Carnell &amp; Hillary Huaylupo Sanchex</t>
-  </si>
-  <si>
-    <t>9781617296956</t>
-  </si>
-  <si>
-    <t>cover-images/IMG_0154.JPG</t>
-  </si>
-  <si>
-    <t>Effective Java</t>
-  </si>
-  <si>
-    <t>Joshua Bloch</t>
-  </si>
-  <si>
-    <t>978-0-321-35668-0</t>
-  </si>
-  <si>
-    <t>cover-images/IMG_0153.JPG</t>
-  </si>
-  <si>
-    <t>Object Design: Roles, Responsibilities, and Collaborations</t>
-  </si>
-  <si>
-    <t>Rebecca Wirfs-Brock &amp; Alan McKean</t>
-  </si>
-  <si>
-    <t>0-201-37943-0</t>
-  </si>
-  <si>
-    <t>cover-images/IMG_0152.JPG</t>
-  </si>
-  <si>
-    <t>Agile Software Development: Principles, Patterns, and Practices</t>
-  </si>
-  <si>
-    <t>Robert C. Martin</t>
-  </si>
-  <si>
-    <t>0-13-597444-5</t>
-  </si>
-  <si>
-    <t>cover-images/IMG_0151.JPG</t>
-  </si>
-  <si>
-    <t>Design Patterns: Elements of Reusable Object-Oriented Software</t>
-  </si>
-  <si>
-    <t>Erich Gamma, Richard Helm, Ralph Johnson &amp; John Vlissides</t>
-  </si>
-  <si>
-    <t>0-201-63361-2</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>cover-images/IMG_0150.JPG</t>
-  </si>
-  <si>
-    <t>Computer Systems: A Programmer’s Perspective</t>
-  </si>
-  <si>
-    <t>Randal E. Bryant &amp; David R. O’Hallaron</t>
-  </si>
-  <si>
-    <t>978-93-325-7390-1</t>
-  </si>
-  <si>
-    <t>cover-images/IMG_0149.JPG</t>
-  </si>
-  <si>
-    <t>Applying UML and Patterns</t>
-  </si>
-  <si>
-    <t>Craig Larman</t>
-  </si>
-  <si>
-    <t>0131489062</t>
-  </si>
-  <si>
-    <t>cover-images/IMG_0148.JPG</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Computer</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>World History</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>US Presidents</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
   </si>
   <si>
     <t>r</t>
@@ -1707,7 +1668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1716,12 +1677,10 @@
     <col min="1" max="1" width="50.6719" style="1" customWidth="1"/>
     <col min="2" max="2" width="49.3516" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7969" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.04688" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.96875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.57812" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.8516" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.67188" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.05" customHeight="1">
@@ -1746,126 +1705,111 @@
       <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" ht="20.05" customHeight="1">
       <c r="A2" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="D2" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="F2" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="G2" t="s" s="2">
         <v>12</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="3" ht="20.05" customHeight="1">
       <c r="A3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="F3" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="G3" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>23</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>24</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s" s="2">
         <v>4</v>
@@ -1874,206 +1818,182 @@
         <v>5</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>3</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H8" t="s" s="2">
-        <v>53</v>
-      </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>5</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>3</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s" s="2">
         <v>4</v>
@@ -2082,128 +2002,113 @@
         <v>5</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="2">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="2">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>23</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>31</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>39</v>
-      </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s" s="2">
         <v>4</v>
@@ -2212,154 +2117,136 @@
         <v>5</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>49</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>57</v>
-      </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="B24" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="C24" t="s" s="2">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>5</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s" s="2">
         <v>4</v>
@@ -2368,388 +2255,343 @@
         <v>5</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>70</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="2">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>23</v>
-      </c>
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>5</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="2">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" t="s" s="2">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="D35" t="s" s="2">
-        <v>27</v>
-      </c>
       <c r="E35" t="s" s="2">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" t="s" s="2">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>5</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" t="s" s="2">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E38" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>74</v>
-      </c>
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E40" t="s" s="2">
         <v>4</v>
@@ -2758,729 +2600,645 @@
         <v>5</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" ht="20.05" customHeight="1">
       <c r="A41" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>6</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" ht="20.05" customHeight="1">
       <c r="A43" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H43" t="s" s="2">
-        <v>31</v>
-      </c>
     </row>
     <row r="44" ht="20.05" customHeight="1">
       <c r="A44" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="20.05" customHeight="1">
       <c r="A45" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="20.05" customHeight="1">
       <c r="A46" t="s" s="2">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" ht="20.05" customHeight="1">
       <c r="A47" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="E47" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>5</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="E49" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" ht="20.05" customHeight="1">
       <c r="A50" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" ht="20.05" customHeight="1">
       <c r="A51" t="s" s="2">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H51" t="s" s="2">
-        <v>70</v>
-      </c>
     </row>
     <row r="52" ht="20.05" customHeight="1">
       <c r="A52" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" ht="20.05" customHeight="1">
       <c r="A53" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>5</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" ht="20.05" customHeight="1">
       <c r="A54" t="s" s="2">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D54" t="s" s="2">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="E54" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>15</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" ht="20.05" customHeight="1">
       <c r="A55" t="s" s="2">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H55" t="s" s="2">
-        <v>23</v>
-      </c>
     </row>
     <row r="56" ht="20.05" customHeight="1">
       <c r="A56" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>5</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="20.05" customHeight="1">
       <c r="A58" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" ht="20.05" customHeight="1">
       <c r="A59" t="s" s="2">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D59" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="20.05" customHeight="1">
       <c r="A60" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D60" t="s" s="2">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="E60" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" ht="20.05" customHeight="1">
       <c r="A61" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D61" t="s" s="2">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="E61" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="20.05" customHeight="1">
       <c r="A62" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="20.05" customHeight="1">
       <c r="A63" t="s" s="2">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D63" t="s" s="2">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="E63" t="s" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>66</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="20.05" customHeight="1">
       <c r="A64" t="s" s="2">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="E64" t="s" s="2">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="20.05" customHeight="1">
       <c r="A65" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D65" t="s" s="2">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" ht="20.05" customHeight="1">
       <c r="A66" t="s" s="2">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D66" t="s" s="2">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="E66" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" ht="20.05" customHeight="1">
       <c r="A67" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D67" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E67" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>15</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" ht="20.05" customHeight="1">
       <c r="A68" t="s" s="2">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D68" t="s" s="2">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>5</v>
@@ -3488,542 +3246,479 @@
       <c r="G68" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H68" t="s" s="2">
-        <v>23</v>
-      </c>
     </row>
     <row r="69" ht="20.05" customHeight="1">
       <c r="A69" t="s" s="2">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D69" t="s" s="2">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E69" t="s" s="2">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>31</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" ht="20.05" customHeight="1">
       <c r="A70" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D70" t="s" s="2">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="E70" t="s" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" ht="20.05" customHeight="1">
       <c r="A71" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D71" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E71" t="s" s="2">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>5</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" ht="20.05" customHeight="1">
       <c r="A72" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D72" t="s" s="2">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="E72" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H72" t="s" s="2">
-        <v>49</v>
-      </c>
     </row>
     <row r="73" ht="20.05" customHeight="1">
       <c r="A73" t="s" s="2">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D73" t="s" s="2">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E73" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="20.05" customHeight="1">
       <c r="A74" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="D74" t="s" s="2">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="E74" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="20.05" customHeight="1">
       <c r="A75" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="D75" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E75" t="s" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" ht="20.05" customHeight="1">
       <c r="A76" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D76" t="s" s="2">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="E76" t="s" s="2">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>5</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="20.05" customHeight="1">
       <c r="A77" t="s" s="2">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D77" t="s" s="2">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="E77" t="s" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" ht="20.05" customHeight="1">
       <c r="A78" t="s" s="2">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D78" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E78" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" ht="20.05" customHeight="1">
       <c r="A79" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D79" t="s" s="2">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="E79" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H79" t="s" s="2">
-        <v>7</v>
-      </c>
     </row>
     <row r="80" ht="20.05" customHeight="1">
       <c r="A80" t="s" s="2">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="D80" t="s" s="2">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="E80" t="s" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="20.05" customHeight="1">
       <c r="A81" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="D81" t="s" s="2">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="E81" t="s" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>5</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" ht="20.05" customHeight="1">
       <c r="A82" t="s" s="2">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="D82" t="s" s="2">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="E82" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" ht="20.05" customHeight="1">
       <c r="A83" t="s" s="2">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="D83" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E83" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="20.05" customHeight="1">
       <c r="A84" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D84" t="s" s="2">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="E84" t="s" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>5</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" ht="20.05" customHeight="1">
       <c r="A85" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="D85" t="s" s="2">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E85" t="s" s="2">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" ht="20.05" customHeight="1">
       <c r="A86" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="D86" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="E86" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="G86" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="C86" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="D86" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="E86" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>53</v>
       </c>
     </row>
     <row r="87" ht="20.05" customHeight="1">
       <c r="A87" t="s" s="2">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D87" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E87" t="s" s="2">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" ht="20.05" customHeight="1">
       <c r="A88" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="D88" t="s" s="2">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="E88" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" ht="20.05" customHeight="1">
       <c r="A89" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D89" t="s" s="2">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E89" t="s" s="2">
         <v>4</v>
@@ -4034,294 +3729,258 @@
       <c r="G89" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H89" t="s" s="2">
-        <v>66</v>
-      </c>
     </row>
     <row r="90" ht="20.05" customHeight="1">
       <c r="A90" t="s" s="2">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D90" t="s" s="2">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E90" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="G90" t="s" s="2">
         <v>12</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>70</v>
       </c>
     </row>
     <row r="91" ht="20.05" customHeight="1">
       <c r="A91" t="s" s="2">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="D91" t="s" s="2">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="E91" t="s" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="20.05" customHeight="1">
       <c r="A92" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D92" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E92" t="s" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" ht="20.05" customHeight="1">
       <c r="A93" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D93" t="s" s="2">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="E93" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" ht="20.05" customHeight="1">
       <c r="A94" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D94" t="s" s="2">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E94" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" ht="20.05" customHeight="1">
       <c r="A95" t="s" s="2">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D95" t="s" s="2">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E95" t="s" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" ht="20.05" customHeight="1">
       <c r="A96" t="s" s="2">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D96" t="s" s="2">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="E96" t="s" s="2">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" ht="20.05" customHeight="1">
       <c r="A97" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D97" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E97" t="s" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" ht="20.05" customHeight="1">
       <c r="A98" t="s" s="2">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D98" t="s" s="2">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="E98" t="s" s="2">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="20.05" customHeight="1">
       <c r="A99" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D99" t="s" s="2">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E99" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" ht="20.05" customHeight="1">
       <c r="A100" t="s" s="2">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D100" t="s" s="2">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E100" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
